--- a/myapp/files/80_distances/weighted_pValue_fisher_RISKS.xlsx
+++ b/myapp/files/80_distances/weighted_pValue_fisher_RISKS.xlsx
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000133544779238428</v>
+        <v>0.000022894265829528</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000373790593099677</v>
+        <v>0.0000037970116694313</v>
       </c>
     </row>
     <row r="4">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.968897936371182</v>
+        <v>0.590936170271651</v>
       </c>
     </row>
     <row r="5">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.999761915487918</v>
+        <v>0.65202555897171</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.999999964268165</v>
+        <v>0.738196521655082</v>
       </c>
     </row>
     <row r="7">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.999999999991165</v>
+        <v>0.829659841257534</v>
       </c>
     </row>
     <row r="8">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0000000000000000000000000000000000030747463142198</v>
+        <v>0.018089943121463</v>
       </c>
     </row>
     <row r="9">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.000000000000000000000000000000103992565484082</v>
+        <v>0.0118788241505579</v>
       </c>
     </row>
     <row r="10">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0000000000000000000000000000000000000000165235179956762</v>
+        <v>0.0155589013140704</v>
       </c>
     </row>
     <row r="11">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00000000000000000000000000000000000000204657503630644</v>
+        <v>0.00775985642912902</v>
       </c>
     </row>
     <row r="12">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.0000000000000000000000000000169106784226871</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.00000000000000000000000000000000289667870309094</v>
       </c>
     </row>
   </sheetData>
